--- a/doc/Supplemental_Tables.xlsx
+++ b/doc/Supplemental_Tables.xlsx
@@ -28,7 +28,7 @@
     <definedName name="ABS.IFD_Q1_M1" localSheetId="9">'Q1 IFD'!$A$2:$E$3</definedName>
     <definedName name="ABS.IFD_Q1_M2" localSheetId="9">'Q1 IFD'!$A$6:$E$20</definedName>
     <definedName name="ABS.IFD_Q1_M3" localSheetId="9">'Q1 IFD'!$A$24:$E$39</definedName>
-    <definedName name="MLH1_M1_glm" localSheetId="1">'MLH1.M1_models'!$B$2:$E$3</definedName>
+    <definedName name="MLH1_M1_glm" localSheetId="1">'MLH1.M1_models'!#REF!</definedName>
     <definedName name="MLH1_M1_glm" localSheetId="0">MLH1_M1!$B$1:$E$2</definedName>
     <definedName name="MLH1_M2_glm" localSheetId="2">MLH1_M2!$A$1:$E$17</definedName>
     <definedName name="MLH1_M3_glm" localSheetId="3">MLH1_M3!#REF!</definedName>
@@ -103,8 +103,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="MLH1_M1_glm1" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M1_glm.csv" comma="1">
+  <connection id="5" name="MLH1_M2_glm" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M2_glm.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -114,8 +114,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="MLH1_M2_glm" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M2_glm.csv" comma="1">
+  <connection id="6" name="MLH1_M4_female_glm" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M4_female_glm.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -125,8 +125,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="MLH1_M4_female_glm" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M4_female_glm.csv" comma="1">
+  <connection id="7" name="MLH1_M4_male_glm" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M4_male_glm.csv" tab="0" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -136,8 +136,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="MLH1_M4_male_glm" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M4_male_glm.csv" tab="0" comma="1">
+  <connection id="8" name="MLH1_M5_female_glm" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M5_female_glm.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -147,8 +147,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="MLH1_M5_female_glm" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M5_female_glm.csv" comma="1">
+  <connection id="9" name="MLH1_M5_male_glm" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M5_male_glm.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -158,8 +158,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="MLH1_M5_male_glm" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\MLH1_M5_male_glm.csv" comma="1">
+  <connection id="10" name="Nrm1CO_Pos_Q1_M1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\Nrm1CO_Pos_Q1_M1.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -169,8 +169,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="Nrm1CO_Pos_Q1_M1" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\Nrm1CO_Pos_Q1_M1.csv" comma="1">
+  <connection id="11" name="Nrm1CO_Pos_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\Nrm1CO_Pos_Q1_M2.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -180,8 +180,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="Nrm1CO_Pos_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\Nrm1CO_Pos_Q1_M2.csv" comma="1">
+  <connection id="12" name="Nrm1CO_Pos_Q1_M3" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\Nrm1CO_Pos_Q1_M3.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -191,8 +191,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="Nrm1CO_Pos_Q1_M3" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\Nrm1CO_Pos_Q1_M3.csv" comma="1">
+  <connection id="13" name="PER.IFD_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\PER.IFD_Q1_M2.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -202,8 +202,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="PER.IFD_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\PER.IFD_Q1_M2.csv" comma="1">
+  <connection id="14" name="PER.IFD_Q1_M3" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\PER.IFD_Q1_M3.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -213,8 +213,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="PER.IFD_Q1_M3" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\PER.IFD_Q1_M3.csv" comma="1">
+  <connection id="15" name="ShortSC_Q1_M1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M1.csv" tab="0" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -224,8 +224,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" name="ShortSC_Q1_M1" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M1.csv" tab="0" comma="1">
+  <connection id="16" name="ShortSC_Q1_M11" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M1.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -235,8 +235,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" name="ShortSC_Q1_M11" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M1.csv" comma="1">
+  <connection id="17" name="ShortSC_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M2.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -246,8 +246,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" name="ShortSC_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M2.csv" comma="1">
+  <connection id="18" name="ShortSC_Q1_M3" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M3.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -257,7 +257,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" name="ShortSC_Q1_M3" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="ShortSC_Q1_M31" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M3.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -268,18 +268,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" name="ShortSC_Q1_M31" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M3.csv" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="21" name="TotalSC_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="TotalSC_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\TotalSC_Q1_M2.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -294,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="76">
   <si>
     <t>Estimate</t>
   </si>
@@ -510,6 +499,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Residual             1.89  </t>
+  </si>
+  <si>
+    <t>Subspecies</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Subspecies*Sex</t>
+  </si>
+  <si>
+    <t>strain(random)</t>
   </si>
 </sst>
 </file>
@@ -612,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,9 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,83 +667,79 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M1" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M1" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ABS.IFD_Q1_M1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PER.IFD_Q1_M3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ABS.IFD_Q1_M2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ABS.IFD_Q1_M1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PER.IFD_Q1_M2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ABS.IFD_Q1_M2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ABS.IFD_Q1_M3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M1_glm" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M2_glm" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PER.IFD_Q1_M2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ABS.IFD_Q1_M3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PER.IFD_Q1_M3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M2_glm" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M5_female_glm" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M5_female_glm" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M4_female_glm" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M4_female_glm" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M4_male_glm" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M4_male_glm" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M5_male_glm" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M5_male_glm" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalSC_Q1_M2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalSC_Q1_M2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2199,209 +2193,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2">
+        <v>72</v>
+      </c>
+      <c r="C2">
         <v>9.6925034659947054E-4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
       </c>
-      <c r="M2">
+      <c r="G2">
         <v>26.356000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>9.6925034659947054E-4</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C3">
         <v>3.6415960512153727E-6</v>
       </c>
-      <c r="D3">
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3">
+        <v>-0.755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4">
         <v>1.8013460998954285E-4</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>3.6415960512153727E-6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3">
-        <v>-0.755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>1.8013460998954285E-4</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="M4">
+      <c r="G4">
         <v>-0.48199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="14"/>
-      <c r="H5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <f>1/10000</f>
+        <v>1E-4</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="M5">
+      <c r="G5">
         <v>-2.649</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="M6">
+      <c r="G6">
         <v>2.9529999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
         <v>69</v>
       </c>
-      <c r="M7">
+      <c r="G7">
         <v>3.2010000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="15"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="15"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="8"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/Supplemental_Tables.xlsx
+++ b/doc/Supplemental_Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="6030" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="6030" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MLH1.M1_models" sheetId="11" r:id="rId1"/>
@@ -32,20 +32,25 @@
     <definedName name="MLH1_M1_glm" localSheetId="0">'MLH1.M1_models'!#REF!</definedName>
     <definedName name="MLH1_M2_glm" localSheetId="1">MLH1_M2_M3!$A$2:$E$18</definedName>
     <definedName name="MLH1_M4_female_glm" localSheetId="2">MLH1_M4.M5!$A$2:$E$10</definedName>
-    <definedName name="MLH1_M4_male_glm" localSheetId="2">MLH1_M4.M5!$A$25:$E$37</definedName>
+    <definedName name="MLH1_M4_male_glm" localSheetId="2">MLH1_M4.M5!$A$24:$E$36</definedName>
     <definedName name="MLH1_M5_female_glm" localSheetId="2">MLH1_M4.M5!$A$13:$E$21</definedName>
-    <definedName name="MLH1_M5_male_glm" localSheetId="2">MLH1_M4.M5!$A$40:$E$52</definedName>
+    <definedName name="MLH1_M5_male_glm" localSheetId="2">MLH1_M4.M5!$A$39:$E$51</definedName>
     <definedName name="Nrm1CO_Pos_Q1_M1" localSheetId="7">Normalized.Foci.Pos_M1!$A$1:$D$2</definedName>
     <definedName name="Nrm1CO_Pos_Q1_M2" localSheetId="8">Normalized.Foci.Pos_M2_M3!$A$2:$E$16</definedName>
     <definedName name="Nrm1CO_Pos_Q1_M3" localSheetId="8">Normalized.Foci.Pos_M2_M3!$A$19:$E$33</definedName>
     <definedName name="PER.IFD_Q1_M2" localSheetId="10">IFD_M2_M3!$G$2:$K$17</definedName>
     <definedName name="PER.IFD_Q1_M3" localSheetId="10">IFD_M2_M3!$G$21:$K$36</definedName>
-    <definedName name="ShortSC_Q1_M1" localSheetId="5">Short.bivalent_M1.SC!#REF!</definedName>
+    <definedName name="ShortSC_Q1_M1" localSheetId="5">Short.bivalent_M1.SC!$A$1:$E$2</definedName>
     <definedName name="ShortSC_Q1_M1" localSheetId="3">Total.SC.M1!$A$3:$E$4</definedName>
+    <definedName name="ShortSC_Q1_M1_1" localSheetId="3">Total.SC.M1!$A$3:$E$4</definedName>
     <definedName name="ShortSC_Q1_M2" localSheetId="6">Short.bivalent_M2_M3!$A$2:$E$15</definedName>
+    <definedName name="ShortSC_Q1_M2_1" localSheetId="6">Short.bivalent_M2_M3!$A$2:$E$15</definedName>
     <definedName name="ShortSC_Q1_M3" localSheetId="6">Short.bivalent_M2_M3!$A$18:$E$31</definedName>
-    <definedName name="ShortSC_Q1_M3" localSheetId="4">Total.SC_M2_M3!$A$21:$E$34</definedName>
+    <definedName name="ShortSC_Q1_M3" localSheetId="4">Total.SC_M2_M3!$A$19:$E$32</definedName>
+    <definedName name="ShortSC_Q1_M3_1" localSheetId="6">Short.bivalent_M2_M3!$A$20:$E$33</definedName>
+    <definedName name="ShortSC_Q1_M3_1" localSheetId="4">Total.SC_M2_M3!$A$20:$E$34</definedName>
     <definedName name="TotalSC_Q1_M2" localSheetId="4">Total.SC_M2_M3!$A$2:$E$17</definedName>
+    <definedName name="TotalSC_Q1_M2_1" localSheetId="4">Total.SC_M2_M3!$A$2:$E$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -201,7 +206,29 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="ShortSC_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="ShortSC_Q1_M11" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M1.csv" tab="0" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" name="ShortSC_Q1_M111" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M1.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" name="ShortSC_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M2.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -212,7 +239,29 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="ShortSC_Q1_M3" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="ShortSC_Q1_M21" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M2.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="18" name="ShortSC_Q1_M22" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M2.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="19" name="ShortSC_Q1_M3" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M3.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -223,7 +272,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" name="ShortSC_Q1_M31" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="ShortSC_Q1_M31" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M3.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -234,7 +283,51 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" name="TotalSC_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="ShortSC_Q1_M311" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M3.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="22" name="ShortSC_Q1_M312" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M3.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="23" name="ShortSC_Q1_M32" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\ShortSC_Q1_M3.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="24" name="TotalSC_Q1_M2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\TotalSC_Q1_M2.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="25" name="TotalSC_Q1_M21" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\April\Documents\MLH1repo\TotalSC_Q1_M2.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -249,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="96">
   <si>
     <t>Estimate</t>
   </si>
@@ -452,20 +545,102 @@
     <t>Subspecies Molossinus * Sex  (male)</t>
   </si>
   <si>
-    <t>Muscuslus * Sex (male)</t>
+    <t>sub.sp</t>
   </si>
   <si>
-    <t>Molosinus * Sex (male)</t>
+    <t>sex.results</t>
+  </si>
+  <si>
+    <t>interaction.pval</t>
+  </si>
+  <si>
+    <t>rand.pval</t>
+  </si>
+  <si>
+    <t>subspMusc</t>
+  </si>
+  <si>
+    <t>subspMol</t>
+  </si>
+  <si>
+    <t>strainG</t>
+  </si>
+  <si>
+    <t>strainLEW</t>
+  </si>
+  <si>
+    <t>strainPWD</t>
+  </si>
+  <si>
+    <t>strainSKIVE</t>
+  </si>
+  <si>
+    <t>sexmale</t>
+  </si>
+  <si>
+    <t>subspMusc:sexmale</t>
+  </si>
+  <si>
+    <t>strainG:sexmale</t>
+  </si>
+  <si>
+    <t>strainLEW:sexmale</t>
+  </si>
+  <si>
+    <t>strainPWD:sexmale</t>
+  </si>
+  <si>
+    <t>strainSKIVE:sexmale</t>
+  </si>
+  <si>
+    <t>strainMSM</t>
+  </si>
+  <si>
+    <t>strainKAZ</t>
+  </si>
+  <si>
+    <t>strainKAZ:sexmale</t>
+  </si>
+  <si>
+    <t>Random effects:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Groups   Name        Std.Dev.</t>
+  </si>
+  <si>
+    <t>Fixed Effects:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> strain   (Intercept) 2.49    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Residual             8.01    </t>
+  </si>
+  <si>
+    <t>Number of obs: 52, groups:  strain, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (Intercept)          subspMusc           subspMol            sexmale  subspMusc:sexmale  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            80.34              -5.71              -4.65             -26.26              10.52  </t>
+  </si>
+  <si>
+    <t>fit warnings:</t>
+  </si>
+  <si>
+    <t>fixed-effect model matrix is rank deficient so dropping 1 column / coefficient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,13 +657,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
@@ -558,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,19 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,6 +762,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,8 +809,8 @@
       <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2514600" cy="509820"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -699,7 +875,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -711,7 +887,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -723,7 +899,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -735,7 +911,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -763,27 +939,15 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  = </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                      <m:t>1  = </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -795,7 +959,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -807,7 +971,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -819,7 +983,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -831,7 +995,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -843,7 +1007,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -855,7 +1019,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -867,7 +1031,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -879,7 +1043,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -904,7 +1068,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -1025,8 +1189,8 @@
       <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2362200" cy="509820"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -1091,7 +1255,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1103,7 +1267,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1115,7 +1279,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1127,7 +1291,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1139,7 +1303,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1151,7 +1315,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1163,7 +1327,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1175,7 +1339,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1187,7 +1351,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1199,7 +1363,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1211,7 +1375,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1223,7 +1387,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1235,7 +1399,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1247,7 +1411,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1259,7 +1423,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1271,7 +1435,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1283,7 +1447,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1308,7 +1472,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -1424,8 +1588,8 @@
       <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2790825" cy="509820"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1490,7 +1654,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1502,7 +1666,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1514,7 +1678,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1526,11 +1690,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>.</m:t>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -1542,6 +1706,42 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
+                      <m:t>𝑁𝑜𝑟𝑚𝑎𝑙𝑖𝑧𝑒𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐼𝑛𝑡𝑒𝑟𝑓𝑜𝑐𝑎𝑙</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
                       <m:t> </m:t>
                     </m:r>
                     <m:r>
@@ -1554,54 +1754,6 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑁𝑜𝑟𝑚𝑎𝑙𝑖𝑧𝑒𝑑</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝐼𝑛𝑡𝑒𝑟𝑓𝑜𝑐𝑎𝑙</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
                       <m:t>𝐷𝑖𝑠𝑡𝑎𝑛𝑐𝑒</m:t>
                     </m:r>
                     <m:r>
@@ -1610,7 +1762,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1622,7 +1774,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1634,7 +1786,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1646,7 +1798,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1658,7 +1810,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1670,7 +1822,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1682,7 +1834,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1694,7 +1846,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1706,7 +1858,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1718,7 +1870,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1743,7 +1895,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1888,8 +2040,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3381374" cy="509820"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -1954,7 +2106,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1966,7 +2118,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1978,7 +2130,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1990,7 +2142,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2062,7 +2214,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2074,7 +2226,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2086,7 +2238,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2098,7 +2250,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2110,7 +2262,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2122,7 +2274,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2134,7 +2286,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2146,7 +2298,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2172,7 +2324,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -2289,8 +2441,8 @@
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3381374" cy="509820"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -2355,7 +2507,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2367,7 +2519,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2379,7 +2531,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2391,7 +2543,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2463,7 +2615,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2475,7 +2627,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2487,7 +2639,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2499,7 +2651,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2511,7 +2663,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2523,7 +2675,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2535,7 +2687,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2547,7 +2699,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2573,7 +2725,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -2690,8 +2842,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2514600" cy="337593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -2756,7 +2908,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2768,7 +2920,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2780,7 +2932,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2792,7 +2944,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2864,7 +3016,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2876,7 +3028,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2888,7 +3040,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2900,7 +3052,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2912,7 +3064,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2924,7 +3076,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2946,7 +3098,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -3059,8 +3211,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2514600" cy="337593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -3125,7 +3277,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3137,7 +3289,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3149,7 +3301,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3161,7 +3313,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3233,7 +3385,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3245,7 +3397,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3257,7 +3409,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3269,7 +3421,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3281,7 +3433,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3293,7 +3445,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3315,7 +3467,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -3433,8 +3585,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3381374" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -3499,7 +3651,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3511,7 +3663,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3523,7 +3675,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3535,7 +3687,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3563,27 +3715,15 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  = </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                      <m:t>1  = </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3595,7 +3735,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3607,7 +3747,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3619,7 +3759,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3631,7 +3771,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3643,7 +3783,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3655,7 +3795,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3681,7 +3821,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -3798,8 +3938,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2514600" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -3864,7 +4004,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3876,7 +4016,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3888,7 +4028,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3900,7 +4040,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3928,27 +4068,15 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  = </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                      <m:t>1  = </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3960,7 +4088,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3972,7 +4100,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3984,7 +4112,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -3996,7 +4124,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4018,7 +4146,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -4136,8 +4264,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2808515" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -4214,7 +4342,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4226,7 +4354,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4238,7 +4366,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4250,7 +4378,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4262,7 +4390,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4290,27 +4418,15 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  = </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                      <m:t>1  = </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4322,7 +4438,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4334,7 +4450,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4356,7 +4472,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -4481,8 +4597,8 @@
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3133724" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -4559,7 +4675,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4571,7 +4687,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4583,7 +4699,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4595,7 +4711,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4607,11 +4723,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>.</m:t>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>.  </m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -4623,7 +4739,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>  </m:t>
+                      <m:t>𝑀𝐿𝐻</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -4635,39 +4751,15 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑀𝐿𝐻</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  = </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                      <m:t>1  = </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4679,7 +4771,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4691,7 +4783,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4703,7 +4795,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4715,7 +4807,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4737,7 +4829,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -4858,12 +4950,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3057525" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -4940,7 +5032,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4952,7 +5044,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4964,7 +5056,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4976,7 +5068,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4988,7 +5080,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5016,27 +5108,15 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  = </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                      <m:t>1  = </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5048,7 +5128,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5060,7 +5140,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5082,7 +5162,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -5203,12 +5283,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2873440" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -5285,7 +5365,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5297,7 +5377,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5309,7 +5389,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5321,7 +5401,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5333,11 +5413,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>.</m:t>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>.  </m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -5349,7 +5429,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>  </m:t>
+                      <m:t>𝑀𝐿𝐻</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -5361,39 +5441,15 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑀𝐿𝐻</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  = </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                      <m:t>1  = </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5405,7 +5461,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5417,7 +5473,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5429,7 +5485,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5441,7 +5497,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5463,7 +5519,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -5588,22 +5644,22 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1590675" cy="675185"/>
+    <xdr:ext cx="2076450" cy="675185"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171450" y="1328736"/>
-              <a:ext cx="1590675" cy="675185"/>
+              <a:off x="0" y="328611"/>
+              <a:ext cx="2076450" cy="675185"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5659,7 +5715,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5671,7 +5727,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5683,7 +5739,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5695,7 +5751,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5767,7 +5823,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5779,7 +5835,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5791,7 +5847,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5803,7 +5859,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5815,7 +5871,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5827,7 +5883,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5839,7 +5895,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5851,7 +5907,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5863,7 +5919,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5875,7 +5931,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5903,13 +5959,13 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171450" y="1328736"/>
-              <a:ext cx="1590675" cy="675185"/>
+              <a:off x="0" y="328611"/>
+              <a:ext cx="2076450" cy="675185"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5959,7 +6015,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5983,7 +6039,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6021,8 +6077,8 @@
       <xdr:rowOff>196983</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4057650" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -6087,7 +6143,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6099,7 +6155,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6111,7 +6167,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6123,7 +6179,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6195,7 +6251,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6207,7 +6263,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6219,7 +6275,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6231,7 +6287,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6243,7 +6299,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6255,7 +6311,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6267,7 +6323,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6279,7 +6335,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6305,7 +6361,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -6417,9 +6473,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3467100" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6431,7 +6487,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="28575" y="4333875"/>
+              <a:off x="0" y="4448175"/>
               <a:ext cx="3467100" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6488,7 +6544,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6500,7 +6556,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6512,7 +6568,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6524,7 +6580,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6596,7 +6652,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6608,7 +6664,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6620,7 +6676,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6632,7 +6688,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6644,7 +6700,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6656,7 +6712,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6686,7 +6742,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="28575" y="4333875"/>
+              <a:off x="0" y="4448175"/>
               <a:ext cx="3467100" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6737,7 +6793,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6761,7 +6817,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6791,9 +6847,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1590675" cy="675185"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6805,7 +6861,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171450" y="309561"/>
+              <a:off x="133350" y="490536"/>
               <a:ext cx="1590675" cy="675185"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6862,7 +6918,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6874,7 +6930,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6886,7 +6942,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6898,7 +6954,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -6994,7 +7050,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7006,7 +7062,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7018,7 +7074,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7030,7 +7086,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7042,7 +7098,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7054,7 +7110,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7066,7 +7122,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7078,7 +7134,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7090,7 +7146,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7102,7 +7158,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7135,7 +7191,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171450" y="309561"/>
+              <a:off x="133350" y="490536"/>
               <a:ext cx="1590675" cy="675185"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7186,7 +7242,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7210,7 +7266,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7248,8 +7304,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4524374" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -7314,7 +7370,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7326,7 +7382,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7338,7 +7394,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7350,7 +7406,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7446,7 +7502,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7458,7 +7514,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7470,7 +7526,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7482,7 +7538,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7494,7 +7550,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7506,7 +7562,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7518,7 +7574,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7530,7 +7586,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7556,7 +7612,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -7669,21 +7725,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4362450" cy="172227"/>
+    <xdr:ext cx="4429124" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="3524250"/>
-              <a:ext cx="4362450" cy="172227"/>
+              <a:off x="0" y="3905250"/>
+              <a:ext cx="4429124" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7739,7 +7795,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7751,7 +7807,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7763,7 +7819,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7775,7 +7831,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7871,7 +7927,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7883,7 +7939,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7895,7 +7951,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7907,7 +7963,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7919,7 +7975,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7931,7 +7987,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7956,13 +8012,13 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="3524250"/>
-              <a:ext cx="4362450" cy="172227"/>
+              <a:off x="0" y="3905250"/>
+              <a:ext cx="4429124" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8012,7 +8068,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8036,7 +8092,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8071,8 +8127,8 @@
       <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2362200" cy="509820"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8137,7 +8193,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8149,7 +8205,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8161,7 +8217,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8173,7 +8229,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8245,7 +8301,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8257,7 +8313,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8269,7 +8325,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8281,7 +8337,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8293,7 +8349,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8305,7 +8361,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8317,7 +8373,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8329,7 +8385,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8341,7 +8397,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8353,7 +8409,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8378,7 +8434,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8499,8 +8555,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3381374" cy="509820"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8565,7 +8621,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8577,7 +8633,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8589,7 +8645,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8601,7 +8657,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8673,7 +8729,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8685,7 +8741,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8697,7 +8753,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8709,7 +8765,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8721,7 +8777,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8733,7 +8789,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8745,7 +8801,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8757,7 +8813,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8783,7 +8839,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -8900,8 +8956,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3419474" cy="337593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -8966,7 +9022,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8978,7 +9034,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8990,7 +9046,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9002,7 +9058,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9074,7 +9130,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9086,7 +9142,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9098,7 +9154,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9110,7 +9166,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9122,7 +9178,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9134,7 +9190,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -9156,7 +9212,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -9269,67 +9325,91 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalSC_Q1_M2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M2_1" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3_1" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Nrm1CO_Pos_Q1_M2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M4_female_glm" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ABS.IFD_Q1_M2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PER.IFD_Q1_M2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ABS.IFD_Q1_M3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PER.IFD_Q1_M3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M4_male_glm" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M5_male_glm" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M5_female_glm" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MLH1_M4_female_glm" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M1_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalSC_Q1_M2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalSC_Q1_M2_1" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ShortSC_Q1_M3_1" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9617,7 +9697,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
@@ -9626,7 +9706,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
@@ -9635,7 +9715,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
@@ -9644,7 +9724,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
@@ -9773,14 +9853,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C2">
         <v>6.1076381213912699E-2</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
@@ -9789,14 +9869,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C3">
         <v>6.81570254910878E-3</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
@@ -9805,14 +9885,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C4">
         <v>3.9489916747234198E-2</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
@@ -9821,14 +9901,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="7" t="s">
         <v>49</v>
       </c>
@@ -9840,16 +9920,16 @@
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9998,12 +10078,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10518,12 +10598,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -11051,10 +11131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11066,11 +11146,11 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -11087,7 +11167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11103,8 +11183,11 @@
       <c r="E3" s="6">
         <v>8.6221395723232698E-88</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>8.6221395723232698E-88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -11120,8 +11203,11 @@
       <c r="E4" s="6">
         <v>0.23635634892720578</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0.23635634892720578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -11137,8 +11223,11 @@
       <c r="E5" s="6">
         <v>9.6012715936805854E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>9.6012715936805854E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -11154,8 +11243,11 @@
       <c r="E6" s="6">
         <v>8.6952858562621041E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>8.6952858562621041E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -11171,8 +11263,11 @@
       <c r="E7" s="6">
         <v>1.7790570248084898E-6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1.7790570248084898E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -11188,8 +11283,11 @@
       <c r="E8" s="6">
         <v>1.922486649561269E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1.922486649561269E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -11205,8 +11303,11 @@
       <c r="E9" s="6">
         <v>0.71552501633022947</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0.71552501633022947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -11222,8 +11323,11 @@
       <c r="E10" s="6">
         <v>0.96022327944848329</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0.96022327944848329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -11239,8 +11343,11 @@
       <c r="E11" s="6">
         <v>0.83365211725968769</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0.83365211725968769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -11256,8 +11363,11 @@
       <c r="E12" s="6">
         <v>0.45310159191455984</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0.45310159191455984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -11273,8 +11383,11 @@
       <c r="E13" s="6">
         <v>0.10192004636881223</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.10192004636881223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -11290,8 +11403,11 @@
       <c r="E14" s="6">
         <v>1.7488789219186297E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1.7488789219186297E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -11307,8 +11423,11 @@
       <c r="E15" s="6">
         <v>0.28695121239960553</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0.28695121239960553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -11324,8 +11443,11 @@
       <c r="E16" s="6">
         <v>4.4077972466853116E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>4.4077972466853116E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -11341,8 +11463,11 @@
       <c r="E17" s="6">
         <v>1.0804075814037665E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1.0804075814037665E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -11358,12 +11483,15 @@
       <c r="E18" s="6">
         <v>0.25548622707038571</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0.25548622707038571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -11380,7 +11508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -11396,8 +11524,11 @@
       <c r="E23" s="6">
         <v>8.6221395723232698E-88</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>8.6221395723232698E-88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -11413,8 +11544,11 @@
       <c r="E24" s="6">
         <v>8.6952858562620652E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>8.6952858562620652E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -11430,8 +11564,11 @@
       <c r="E25" s="6">
         <v>1.7790570248084965E-6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1.7790570248084965E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -11447,8 +11584,11 @@
       <c r="E26" s="6">
         <v>1.9224866495612739E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1.9224866495612739E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -11464,8 +11604,11 @@
       <c r="E27" s="6">
         <v>7.7144116965283532E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>7.7144116965283532E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -11481,8 +11624,11 @@
       <c r="E28" s="6">
         <v>6.1088857379585714E-6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>6.1088857379585714E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11498,8 +11644,11 @@
       <c r="E29" s="6">
         <v>9.6012715936806131E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>9.6012715936806131E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -11515,8 +11664,11 @@
       <c r="E30" s="6">
         <v>0.4818301659092456</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0.4818301659092456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -11532,8 +11684,11 @@
       <c r="E31" s="6">
         <v>0.23635634892720644</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0.23635634892720644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -11549,8 +11704,11 @@
       <c r="E32" s="6">
         <v>1.7488789219186379E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1.7488789219186379E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -11566,8 +11724,11 @@
       <c r="E33" s="6">
         <v>0.28695121239960608</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0.28695121239960608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -11583,8 +11744,11 @@
       <c r="E34" s="6">
         <v>3.8724155618843599E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>3.8724155618843599E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -11600,8 +11764,11 @@
       <c r="E35" s="6">
         <v>2.375468357165829E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>2.375468357165829E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -11617,8 +11784,11 @@
       <c r="E36" s="6">
         <v>0.10192004636881265</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0.10192004636881265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -11634,8 +11804,11 @@
       <c r="E37" s="6">
         <v>0.44728265302947645</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0.44728265302947645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -11649,6 +11822,9 @@
         <v>-0.75268414530980521</v>
       </c>
       <c r="E38" s="6">
+        <v>0.45310159191456173</v>
+      </c>
+      <c r="G38">
         <v>0.45310159191456173</v>
       </c>
     </row>
@@ -11664,10 +11840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11677,12 +11853,12 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -11699,7 +11875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11716,8 +11892,11 @@
         <v>1.7739814011675781E-56</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1.7739814011675781E-56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -11733,8 +11912,11 @@
       <c r="E4" s="6">
         <v>0.25781063131281706</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0.25781063131281706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -11750,8 +11932,11 @@
       <c r="E5" s="6">
         <v>0.11235409925988203</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0.11235409925988203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -11768,8 +11953,11 @@
         <v>8.6970469697161837E-6</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>8.6970469697161837E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11785,8 +11973,11 @@
       <c r="E7" s="6">
         <v>2.6068632641037513E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>2.6068632641037513E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -11802,8 +11993,11 @@
       <c r="E8" s="6">
         <v>0.72718718509999092</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0.72718718509999092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -11819,8 +12013,11 @@
       <c r="E9" s="6">
         <v>0.96191522448612077</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0.96191522448612077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -11836,21 +12033,24 @@
       <c r="E10" s="6">
         <v>0.8406453125338158</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0.8406453125338158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+    <row r="12" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -11867,7 +12067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -11884,8 +12084,11 @@
         <v>1.7739814011675781E-56</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1.7739814011675781E-56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -11902,8 +12105,11 @@
         <v>8.6970469697161837E-6</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>8.6970469697161837E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -11920,8 +12126,11 @@
         <v>2.6068632641037499E-2</v>
       </c>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>2.6068632641037499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -11937,8 +12146,11 @@
       <c r="E17" s="6">
         <v>9.1957805569037307E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>9.1957805569037307E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -11955,8 +12167,11 @@
         <v>2.4266679245766496E-5</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2.4266679245766496E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -11972,8 +12187,11 @@
       <c r="E19" s="6">
         <v>0.1123540992598817</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0.1123540992598817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -11989,8 +12207,11 @@
       <c r="E20" s="6">
         <v>0.50096753738977007</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0.50096753738977007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -12006,464 +12227,539 @@
       <c r="E21" s="6">
         <v>0.25781063131281756</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="G21">
+        <v>0.25781063131281756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6">
+        <v>23.524100000000001</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.49492689657053496</v>
+      </c>
+      <c r="D25" s="6">
+        <v>47.530453816521252</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5.9172410259290473E-47</v>
+      </c>
+      <c r="G25">
+        <v>5.9172410259290473E-47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B26" s="6">
-        <v>23.524100000000001</v>
+        <v>-1.3304333333333358</v>
       </c>
       <c r="C26" s="6">
-        <v>0.49492689657053496</v>
+        <v>1.030272492812174</v>
       </c>
       <c r="D26" s="6">
-        <v>47.530453816521252</v>
+        <v>-1.2913412156640809</v>
       </c>
       <c r="E26" s="6">
-        <v>5.9172410259290473E-47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.20189037265580803</v>
+      </c>
+      <c r="G26">
+        <v>0.20189037265580803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="6">
-        <v>-1.3304333333333358</v>
+        <v>-0.28410000000000141</v>
       </c>
       <c r="C27" s="6">
-        <v>1.030272492812174</v>
+        <v>0.80821223771802408</v>
       </c>
       <c r="D27" s="6">
-        <v>-1.2913412156640809</v>
+        <v>-0.35151657787582352</v>
       </c>
       <c r="E27" s="6">
-        <v>0.20189037265580803</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.72652004677652671</v>
+      </c>
+      <c r="G27">
+        <v>0.72652004677652671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6">
-        <v>-0.28410000000000141</v>
+        <v>0.15671818181818126</v>
       </c>
       <c r="C28" s="6">
-        <v>0.80821223771802408</v>
+        <v>0.68383978000749945</v>
       </c>
       <c r="D28" s="6">
-        <v>-0.35151657787582352</v>
+        <v>0.22917383047892093</v>
       </c>
       <c r="E28" s="6">
-        <v>0.72652004677652671</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.81956874851499784</v>
+      </c>
+      <c r="G28">
+        <v>0.81956874851499784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6">
-        <v>0.15671818181818126</v>
+        <v>0.52832857142857081</v>
       </c>
       <c r="C29" s="6">
-        <v>0.68383978000749945</v>
+        <v>0.77128786178257858</v>
       </c>
       <c r="D29" s="6">
-        <v>0.22917383047892093</v>
+        <v>0.68499531446989559</v>
       </c>
       <c r="E29" s="6">
-        <v>0.81956874851499784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.49617249713727901</v>
+      </c>
+      <c r="G29">
+        <v>0.49617249713727901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B30" s="6">
-        <v>0.52832857142857081</v>
+        <v>-1.7161000000000008</v>
       </c>
       <c r="C30" s="6">
-        <v>0.77128786178257858</v>
+        <v>1.641486814579499</v>
       </c>
       <c r="D30" s="6">
-        <v>0.68499531446989559</v>
+        <v>-1.0454546358568317</v>
       </c>
       <c r="E30" s="6">
-        <v>0.49617249713727901</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.30030471478760878</v>
+      </c>
+      <c r="G30">
+        <v>0.30030471478760878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6">
-        <v>-1.7161000000000008</v>
+        <v>6.112708333333333</v>
       </c>
       <c r="C31" s="6">
-        <v>1.641486814579499</v>
+        <v>1.0595751826475768</v>
       </c>
       <c r="D31" s="6">
-        <v>-1.0454546358568317</v>
+        <v>5.7690180304708676</v>
       </c>
       <c r="E31" s="6">
-        <v>0.30030471478760878</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.5999756828654284E-7</v>
+      </c>
+      <c r="G31">
+        <v>3.5999756828654284E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6">
-        <v>6.112708333333333</v>
+        <v>6.9127500000000008</v>
       </c>
       <c r="C32" s="6">
-        <v>1.0595751826475768</v>
+        <v>1.0102652971475299</v>
       </c>
       <c r="D32" s="6">
-        <v>5.7690180304708676</v>
+        <v>6.8425096056630421</v>
       </c>
       <c r="E32" s="6">
-        <v>3.5999756828654284E-7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.2991231213271566E-9</v>
+      </c>
+      <c r="G32">
+        <v>6.2991231213271566E-9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="6">
-        <v>6.9127500000000008</v>
+        <v>4.0423333333333336</v>
       </c>
       <c r="C33" s="6">
-        <v>1.0102652971475299</v>
+        <v>1.1429847078567374</v>
       </c>
       <c r="D33" s="6">
-        <v>6.8425096056630421</v>
+        <v>3.5366469083504155</v>
       </c>
       <c r="E33" s="6">
-        <v>6.2991231213271566E-9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.2204898326350949E-4</v>
+      </c>
+      <c r="G33">
+        <v>8.2204898326350949E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="6">
-        <v>4.0423333333333336</v>
+        <v>1.4114242424242416</v>
       </c>
       <c r="C34" s="6">
-        <v>1.1429847078567374</v>
+        <v>1.0194081558768471</v>
       </c>
       <c r="D34" s="6">
-        <v>3.5366469083504155</v>
+        <v>1.3845526291774668</v>
       </c>
       <c r="E34" s="6">
-        <v>8.2204898326350949E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17168154876975705</v>
+      </c>
+      <c r="G34">
+        <v>0.17168154876975705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35" s="6">
-        <v>1.4114242424242416</v>
+        <v>3.406333333333337</v>
       </c>
       <c r="C35" s="6">
-        <v>1.0194081558768471</v>
+        <v>1.8072175037847213</v>
       </c>
       <c r="D35" s="6">
-        <v>1.3845526291774668</v>
+        <v>1.8848496797976482</v>
       </c>
       <c r="E35" s="6">
-        <v>0.17168154876975705</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.4643252264158374E-2</v>
+      </c>
+      <c r="G35">
+        <v>6.4643252264158374E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="6">
-        <v>3.406333333333337</v>
+        <v>2.703333333333334</v>
       </c>
       <c r="C36" s="6">
         <v>1.8072175037847213</v>
       </c>
       <c r="D36" s="6">
-        <v>1.8848496797976482</v>
+        <v>1.4958538901222149</v>
       </c>
       <c r="E36" s="6">
-        <v>6.4643252264158374E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="6">
-        <v>2.703333333333334</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1.8072175037847213</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1.4958538901222149</v>
-      </c>
-      <c r="E37" s="6">
         <v>0.14030649646446913</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="G36">
+        <v>0.14030649646446913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="6">
+        <v>23.524099999999997</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.49492689657053485</v>
+      </c>
+      <c r="D40" s="6">
+        <v>47.530453816521252</v>
+      </c>
+      <c r="E40" s="6">
+        <v>5.9172410259290473E-47</v>
+      </c>
+      <c r="G40">
+        <v>5.9172410259290473E-47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B41" s="6">
-        <v>23.524099999999997</v>
+        <v>0.15671818181818195</v>
       </c>
       <c r="C41" s="6">
-        <v>0.49492689657053485</v>
+        <v>0.68383978000749968</v>
       </c>
       <c r="D41" s="6">
-        <v>47.530453816521252</v>
+        <v>0.22917383047892187</v>
       </c>
       <c r="E41" s="6">
-        <v>5.9172410259290473E-47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.81956874851499717</v>
+      </c>
+      <c r="G41">
+        <v>0.81956874851499717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" s="6">
-        <v>0.15671818181818195</v>
+        <v>0.52832857142857137</v>
       </c>
       <c r="C42" s="6">
+        <v>0.77128786178257891</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.68499531446989603</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.49617249713727862</v>
+      </c>
+      <c r="G42">
+        <v>0.49617249713727862</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="6">
+        <v>-1.7161</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1.641486814579499</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-1.0454546358568313</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.30030471478760906</v>
+      </c>
+      <c r="G43">
+        <v>0.30030471478760906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="6">
+        <v>4.7822749999999985</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.74239034485580213</v>
+      </c>
+      <c r="D44" s="6">
+        <v>6.4417257486408737</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2.8804499860890133E-8</v>
+      </c>
+      <c r="G44">
+        <v>2.8804499860890133E-8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6">
+        <v>6.6286499999999995</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.92592343923312237</v>
+      </c>
+      <c r="D45" s="6">
+        <v>7.1589612263083504</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1.890058015446328E-9</v>
+      </c>
+      <c r="G45">
+        <v>1.890058015446328E-9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="6">
+        <v>-0.28410000000000007</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.80821223771802408</v>
+      </c>
+      <c r="D46" s="6">
+        <v>-0.35151657787582186</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.72652004677652804</v>
+      </c>
+      <c r="G46">
+        <v>0.72652004677652804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2.7118999999999986</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.85723853089255309</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3.1635302220682733</v>
+      </c>
+      <c r="E47" s="6">
+        <v>2.5186742352447658E-3</v>
+      </c>
+      <c r="G47">
+        <v>2.5186742352447658E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="6">
+        <v>8.0990909090907351E-2</v>
+      </c>
+      <c r="C48" s="6">
         <v>0.68383978000749968</v>
       </c>
-      <c r="D42" s="6">
-        <v>0.22917383047892187</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0.81956874851499717</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="6">
-        <v>0.52832857142857137</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0.77128786178257891</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.68499531446989603</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0.49617249713727862</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="6">
-        <v>-1.7161</v>
-      </c>
-      <c r="C44" s="6">
+      <c r="D48" s="6">
+        <v>0.11843550413229707</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.90614641050196154</v>
+      </c>
+      <c r="G48">
+        <v>0.90614641050196154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2.0759000000000016</v>
+      </c>
+      <c r="C49" s="6">
         <v>1.641486814579499</v>
       </c>
-      <c r="D44" s="6">
-        <v>-1.0454546358568313</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0.30030471478760906</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="6">
-        <v>4.7822749999999985</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0.74239034485580213</v>
-      </c>
-      <c r="D45" s="6">
-        <v>6.4417257486408737</v>
-      </c>
-      <c r="E45" s="6">
-        <v>2.8804499860890133E-8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="6">
-        <v>6.6286499999999995</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.92592343923312237</v>
-      </c>
-      <c r="D46" s="6">
-        <v>7.1589612263083504</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1.890058015446328E-9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="6">
-        <v>-0.28410000000000007</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0.80821223771802408</v>
-      </c>
-      <c r="D47" s="6">
-        <v>-0.35151657787582186</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0.72652004677652804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="6">
-        <v>2.7118999999999986</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0.85723853089255309</v>
-      </c>
-      <c r="D48" s="6">
-        <v>3.1635302220682733</v>
-      </c>
-      <c r="E48" s="6">
-        <v>2.5186742352447658E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="6">
-        <v>8.0990909090907351E-2</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0.68383978000749968</v>
-      </c>
       <c r="D49" s="6">
-        <v>0.11843550413229707</v>
+        <v>1.264646161980769</v>
       </c>
       <c r="E49" s="6">
-        <v>0.90614641050196154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2112360761530426</v>
+      </c>
+      <c r="G49">
+        <v>0.2112360761530426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="6">
-        <v>2.0759000000000016</v>
+        <v>1.3728999999999987</v>
       </c>
       <c r="C50" s="6">
-        <v>1.641486814579499</v>
+        <v>1.6414868145794987</v>
       </c>
       <c r="D50" s="6">
-        <v>1.264646161980769</v>
+        <v>0.83637589276140234</v>
       </c>
       <c r="E50" s="6">
-        <v>0.2112360761530426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.4064982803853196</v>
+      </c>
+      <c r="G50">
+        <v>0.4064982803853196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="6">
-        <v>1.3728999999999987</v>
+        <v>-1.3304333333333329</v>
       </c>
       <c r="C51" s="6">
-        <v>1.6414868145794987</v>
+        <v>1.0302724928121736</v>
       </c>
       <c r="D51" s="6">
-        <v>0.83637589276140234</v>
+        <v>-1.2913412156640787</v>
       </c>
       <c r="E51" s="6">
-        <v>0.4064982803853196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="6">
-        <v>-1.3304333333333329</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1.0302724928121736</v>
-      </c>
-      <c r="D52" s="6">
-        <v>-1.2913412156640787</v>
-      </c>
-      <c r="E52" s="6">
+        <v>0.20189037265580878</v>
+      </c>
+      <c r="G51">
         <v>0.20189037265580878</v>
       </c>
     </row>
@@ -12471,8 +12767,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12482,15 +12778,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -12506,49 +12802,50 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.131713810169865</v>
+        <v>8.4827723785348087E-4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3">
-        <v>1.27468066684173E-11</v>
+      <c r="C3">
+        <v>2.5573249466384537E-31</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C4">
-        <v>3.3477300526601202E-2</v>
+        <v>9.9096899770360542E-5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C5">
-        <v>0.2046</v>
+        <f>1/10000</f>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12586,7 +12883,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>167.1</v>
@@ -12594,7 +12891,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>396.9</v>
@@ -12604,7 +12901,7 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="10">
         <v>119</v>
       </c>
     </row>
@@ -12612,64 +12909,52 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="10">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K17" s="16"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K19" s="16"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K20" s="16"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="B16" s="10"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12682,546 +12967,595 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6">
-        <v>1683.2049671151101</v>
+        <v>1683.3833132361683</v>
       </c>
       <c r="C3" s="6">
-        <v>61.661944758599297</v>
+        <v>36.478717942393452</v>
       </c>
       <c r="D3" s="6">
-        <v>27.297305878118198</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1.7892479246577E-60</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46.146997706842043</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6.8476448906856882E-83</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>415.17246918414997</v>
+        <v>229.56811863214386</v>
       </c>
       <c r="C4" s="6">
-        <v>193.65432080005499</v>
+        <v>62.001898206370491</v>
       </c>
       <c r="D4" s="6">
-        <v>2.14388435780273</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3.3632589894028099E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.7025982312353865</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.1331650862026381E-4</v>
+      </c>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="6">
-        <v>157.89689533670699</v>
+        <v>161.13700122803439</v>
       </c>
       <c r="C5" s="6">
-        <v>90.063034890459406</v>
+        <v>53.280577829112893</v>
       </c>
       <c r="D5" s="6">
-        <v>1.7531820410976799</v>
+        <v>3.024310317069947</v>
       </c>
       <c r="E5" s="6">
-        <v>8.1586699628115697E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.9994818416794007E-3</v>
+      </c>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="6">
-        <v>598.57741472631096</v>
+        <v>431.23773156183881</v>
       </c>
       <c r="C6" s="6">
-        <v>91.755910036897504</v>
+        <v>54.282069352294059</v>
       </c>
       <c r="D6" s="6">
-        <v>6.5235843062927099</v>
-      </c>
-      <c r="E6" s="10">
-        <v>9.6230751267210195E-10</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.944386363811569</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7.8263498735992003E-13</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="6">
-        <v>251.706957540693</v>
+        <v>248.68440089332032</v>
       </c>
       <c r="C7" s="6">
-        <v>101.32091425176699</v>
+        <v>59.940650057752016</v>
       </c>
       <c r="D7" s="6">
-        <v>2.48425470101109</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1.4066937527411999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.1488439089952518</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5.9726584202964396E-5</v>
+      </c>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="6">
-        <v>-212.18960320394601</v>
+        <v>-26.763598772996747</v>
       </c>
       <c r="C8" s="6">
-        <v>193.108163693324</v>
+        <v>61.402832000720025</v>
       </c>
       <c r="D8" s="6">
-        <v>-1.0988121845585199</v>
+        <v>-0.43586912689439</v>
       </c>
       <c r="E8" s="6">
-        <v>0.27358741112094198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.66364908711553217</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="6">
-        <v>-135.35009568113099</v>
+        <v>50.075908749818367</v>
       </c>
       <c r="C9" s="6">
-        <v>223.29158317460499</v>
+        <v>90.38252145761038</v>
       </c>
       <c r="D9" s="6">
-        <v>-0.60615852042793905</v>
+        <v>0.55404416630824016</v>
       </c>
       <c r="E9" s="6">
-        <v>0.54531366039367501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.58049315316905858</v>
+      </c>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-345.00471099408134</v>
+      </c>
+      <c r="C10" s="6">
+        <v>58.199900153131743</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-5.9279261663048848</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.5617511159882357E-8</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-84.337752392824498</v>
+      </c>
+      <c r="C11" s="6">
+        <v>89.203690570630215</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-0.94545138046779653</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.34616907888281573</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6">
+        <v>243.12526191449439</v>
+      </c>
+      <c r="C12" s="6">
+        <v>97.055246237224793</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.5050192683066479</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.3470832207404887E-2</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-303.27043531113691</v>
+      </c>
+      <c r="C13" s="6">
+        <v>84.021462040331542</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-3.6094401114510792</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.3552294070361525E-4</v>
+      </c>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-169.84842882083251</v>
+      </c>
+      <c r="C14" s="6">
+        <v>94.239617069217857</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-1.8023038940839593</v>
+      </c>
+      <c r="E14" s="6">
+        <v>7.3796863466524351E-2</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6">
+        <v>121.50532709478765</v>
+      </c>
+      <c r="C15" s="6">
+        <v>93.029942094488803</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.3060883878802905</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.19381122451147587</v>
+      </c>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-119.76616240837159</v>
+      </c>
+      <c r="C16" s="6">
+        <v>121.44917057518174</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-0.98614228356736033</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.32588118321571224</v>
+      </c>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="19" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1683.3833132361683</v>
+      </c>
+      <c r="C21" s="6">
+        <v>36.478717942393459</v>
+      </c>
+      <c r="D21" s="6">
+        <v>46.146997706842036</v>
+      </c>
+      <c r="E21" s="6">
+        <v>6.8476448906858828E-83</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6">
+        <v>431.23773156183876</v>
+      </c>
+      <c r="C22" s="6">
+        <v>54.282069352294059</v>
+      </c>
+      <c r="D22" s="6">
+        <v>7.9443863638115682</v>
+      </c>
+      <c r="E22" s="6">
+        <v>7.8263498735992003E-13</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="6">
+        <v>248.68440089332017</v>
+      </c>
+      <c r="C23" s="6">
+        <v>59.940650057752009</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4.1488439089952491</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5.9726584202965006E-5</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="6">
+        <v>202.80451985914706</v>
+      </c>
+      <c r="C24" s="6">
+        <v>50.867141869353283</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3.9869454505627306</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.1061696628946535E-4</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="6">
+        <v>161.13700122803425</v>
+      </c>
+      <c r="C25" s="6">
+        <v>53.280577829112907</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3.0243103170699435</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.9994818416794332E-3</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6">
+        <v>279.64402738196219</v>
+      </c>
+      <c r="C26" s="6">
+        <v>83.583243112980881</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3.3456948661822397</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.0711197146456059E-3</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6">
-        <v>-185.42600443094901</v>
-      </c>
-      <c r="C10" s="6">
-        <v>162.843101878277</v>
-      </c>
-      <c r="D10" s="6">
-        <v>-1.1386789019135299</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.25662856320217597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B27" s="6">
+        <v>229.56811863214378</v>
+      </c>
+      <c r="C27" s="6">
+        <v>62.001898206370498</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3.7025982312353847</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.1331650862026522E-4</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6">
-        <v>-331.522473509669</v>
-      </c>
-      <c r="C11" s="6">
-        <v>93.671218361957898</v>
-      </c>
-      <c r="D11" s="6">
-        <v>-3.53921385145886</v>
-      </c>
-      <c r="E11" s="10">
-        <v>5.3276127042585801E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="6">
-        <v>-99.688296122924996</v>
-      </c>
-      <c r="C12" s="6">
-        <v>144.666248901373</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-0.68909159448026003</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.49181616591767302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6">
-        <v>170.42009642077301</v>
-      </c>
-      <c r="C13" s="6">
-        <v>142.35651258534099</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.1971359323558</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.233117271852015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B28" s="6">
+        <v>-345.00471099408156</v>
+      </c>
+      <c r="C28" s="6">
+        <v>58.199900153131772</v>
+      </c>
+      <c r="D28" s="6">
+        <v>-5.9279261663048857</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.5617511159882205E-8</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="6">
-        <v>-481.68135090133802</v>
-      </c>
-      <c r="C14" s="6">
-        <v>130.315812918425</v>
-      </c>
-      <c r="D14" s="6">
-        <v>-3.6962617207695301</v>
-      </c>
-      <c r="E14" s="10">
-        <v>3.04881880909094E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B29" s="6">
+        <v>-303.27043531113674</v>
+      </c>
+      <c r="C29" s="6">
+        <v>84.021462040331556</v>
+      </c>
+      <c r="D29" s="6">
+        <v>-3.6094401114510766</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4.3552294070361888E-4</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6">
-        <v>-177.698708000392</v>
-      </c>
-      <c r="C15" s="6">
-        <v>147.31517782026501</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-1.20624847099731</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.22959584868837499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B30" s="6">
+        <v>-169.84842882083234</v>
+      </c>
+      <c r="C30" s="6">
+        <v>94.239617069217857</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-1.8023038940839575</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7.3796863466524643E-2</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="6">
-        <v>123.373633340476</v>
-      </c>
-      <c r="C16" s="6">
-        <v>154.35236980824601</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.79929860159416</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.42536455524917899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="6">
-        <v>-108.85532312591199</v>
-      </c>
-      <c r="C17" s="6">
-        <v>197.70241288601599</v>
-      </c>
-      <c r="D17" s="6">
-        <v>-0.55060189472079102</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.58271491548015997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6">
-        <v>73.886333333333397</v>
-      </c>
-      <c r="C22" s="6">
-        <v>4.6370848367779303</v>
-      </c>
-      <c r="D22" s="6">
-        <v>15.933789424623299</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1.1433738135208399E-18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6">
-        <v>7.9648333333333303</v>
-      </c>
-      <c r="C23" s="6">
-        <v>5.67924587205147</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.4024455909770699</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0.168692554978048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="6">
-        <v>9.1664999999999992</v>
-      </c>
-      <c r="C24" s="6">
-        <v>5.67924587205147</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.61403471631857</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.11458306791363899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1.8291666666666699</v>
-      </c>
-      <c r="C25" s="6">
-        <v>5.4374639495153598</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.33640069776089299</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0.738372129010606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1.7246666666666599</v>
-      </c>
-      <c r="C26" s="6">
-        <v>6.5578282660459797</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.262993569928684</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.79393998062023396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="6">
-        <v>-7.0003333333333302</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6.1342866432114702</v>
-      </c>
-      <c r="D27" s="6">
-        <v>-1.1411813207457899</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.26075352062797402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="6">
-        <v>6.8969166666666704</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6.1342866432114702</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1.1243225280806199</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0.26774893215888101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="6">
-        <v>-24.321833333333299</v>
-      </c>
-      <c r="C29" s="6">
-        <v>7.3318748938241898</v>
-      </c>
-      <c r="D29" s="6">
-        <v>-3.3172733694379</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1.9751870895198102E-3</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="6">
-        <v>-0.91458333333333697</v>
-      </c>
-      <c r="C30" s="6">
-        <v>8.9796761738959194</v>
-      </c>
-      <c r="D30" s="6">
-        <v>-0.101850369169441</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.91939731100514999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
       <c r="B31" s="6">
-        <v>-3.2309999999999999</v>
+        <v>37.167574701963318</v>
       </c>
       <c r="C31" s="6">
-        <v>9.8367423990689709</v>
+        <v>86.439160513925671</v>
       </c>
       <c r="D31" s="6">
-        <v>-0.32846239831448798</v>
+        <v>0.42998537330745457</v>
       </c>
       <c r="E31" s="6">
-        <v>0.74431922941371897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.66791276924653886</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="6">
-        <v>8.6726666666666592</v>
+        <v>243.12526191449476</v>
       </c>
       <c r="C32" s="6">
-        <v>9.1281106293125394</v>
+        <v>97.055246237224836</v>
       </c>
       <c r="D32" s="6">
-        <v>0.95010534149494896</v>
+        <v>2.5050192683066506</v>
       </c>
       <c r="E32" s="6">
-        <v>0.34790974056242102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.347083220740479E-2</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="6">
-        <v>16.125333333333302</v>
+        <v>-204.10391480119597</v>
       </c>
       <c r="C33" s="6">
-        <v>9.2741696735558605</v>
+        <v>116.47772052048346</v>
       </c>
       <c r="D33" s="6">
-        <v>1.73873607028268</v>
+        <v>-1.7523000440698253</v>
       </c>
       <c r="E33" s="6">
-        <v>8.9970840555934295E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.2062013862105154E-2</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" s="6">
-        <v>0.94525000000000203</v>
+        <v>-84.337752392824129</v>
       </c>
       <c r="C34" s="6">
-        <v>9.5595952884927105</v>
+        <v>89.203690570630229</v>
       </c>
       <c r="D34" s="6">
-        <v>9.8879708970299102E-2</v>
+        <v>-0.9454513804677922</v>
       </c>
       <c r="E34" s="6">
-        <v>0.92174027757396004</v>
-      </c>
+        <v>0.34616907888281784</v>
+      </c>
+      <c r="F34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13230,10 +13564,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13245,138 +13579,184 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="7" t="s">
+      <c r="E2">
+        <v>0.12683705033364417</v>
+      </c>
+      <c r="F2">
+        <v>1.1225128823082477E-11</v>
+      </c>
+      <c r="G2">
+        <v>2.9885590415854351E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.17849999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
-        <v>0.1514679508864481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="7" t="s">
+      <c r="C3">
+        <v>0.12683705033364417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
-        <v>1.0805284743194575E-11</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="7" t="s">
+      <c r="C4">
+        <v>1.1225128823082477E-11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
-        <v>4.7470950314220745E-2</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="7" t="s">
+      <c r="C5">
+        <v>2.9885590415854351E-2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C5">
-        <v>0.20180000000000001</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C6">
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>80.38</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-5.64</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="F10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-4.6900000000000004</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="F11" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-26.28</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>10.88</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="F13" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>12.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="10">
         <v>2.27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="10">
         <v>7.94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13385,25 +13765,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -13419,8 +13800,20 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13436,8 +13829,23 @@
       <c r="E3" s="6">
         <v>1.1433738135208399E-18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>73.886333333333354</v>
+      </c>
+      <c r="I3">
+        <v>4.6331008115116186</v>
+      </c>
+      <c r="J3">
+        <v>15.947490965392317</v>
+      </c>
+      <c r="K3">
+        <v>1.1105038520767292E-18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -13453,8 +13861,23 @@
       <c r="E4" s="6">
         <v>0.26774893215888101</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>6.8969166666666641</v>
+      </c>
+      <c r="I4">
+        <v>6.1290162731756404</v>
+      </c>
+      <c r="J4">
+        <v>1.1252893383318021</v>
+      </c>
+      <c r="K4">
+        <v>0.26734417446503389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -13470,8 +13893,23 @@
       <c r="E5" s="6">
         <v>0.79393998062023496</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>1.8026666666666591</v>
+      </c>
+      <c r="I5">
+        <v>6.5521940034815254</v>
+      </c>
+      <c r="J5">
+        <v>0.27512412875882603</v>
+      </c>
+      <c r="K5">
+        <v>0.78467324599038057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -13487,8 +13925,23 @@
       <c r="E6" s="6">
         <v>0.168692554978049</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <v>7.9648333333333294</v>
+      </c>
+      <c r="I6">
+        <v>5.6743664575390653</v>
+      </c>
+      <c r="J6">
+        <v>1.4036515605634015</v>
+      </c>
+      <c r="K6">
+        <v>0.16833546794509474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13504,8 +13957,23 @@
       <c r="E7" s="6">
         <v>0.11458306791363899</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <v>9.1664999999999939</v>
+      </c>
+      <c r="I7">
+        <v>5.6743664575390644</v>
+      </c>
+      <c r="J7">
+        <v>1.6154226323929464</v>
+      </c>
+      <c r="K7">
+        <v>0.1142814820519948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -13521,8 +13989,23 @@
       <c r="E8" s="6">
         <v>0.30918353389573</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <v>-5.0677499999999984</v>
+      </c>
+      <c r="I8">
+        <v>4.9141455026111442</v>
+      </c>
+      <c r="J8">
+        <v>-1.0312576209449305</v>
+      </c>
+      <c r="K8">
+        <v>0.30877322137498675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -13538,8 +14021,23 @@
       <c r="E9" s="6">
         <v>1.9012517428052701E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>-13.897250000000001</v>
+      </c>
+      <c r="I9">
+        <v>5.6743664575390644</v>
+      </c>
+      <c r="J9">
+        <v>-2.4491280399304962</v>
+      </c>
+      <c r="K9">
+        <v>1.8916880907998323E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -13555,8 +14053,23 @@
       <c r="E10" s="6">
         <v>1.9751870895198002E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10">
+        <v>-25.336333333333339</v>
+      </c>
+      <c r="I10">
+        <v>7.3255755967755896</v>
+      </c>
+      <c r="J10">
+        <v>-3.4586133196803441</v>
+      </c>
+      <c r="K10">
+        <v>1.3279127300325946E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -13572,8 +14085,23 @@
       <c r="E11" s="6">
         <v>0.92174027757396104</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11">
+        <v>1.9597499999999972</v>
+      </c>
+      <c r="I11">
+        <v>9.5513820099986528</v>
+      </c>
+      <c r="J11">
+        <v>0.20517973189099509</v>
+      </c>
+      <c r="K11">
+        <v>0.8384988824073788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -13589,8 +14117,23 @@
       <c r="E12" s="6">
         <v>0.91939731100515099</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <v>9.9916666666675494E-2</v>
+      </c>
+      <c r="I12">
+        <v>8.9719611421422858</v>
+      </c>
+      <c r="J12">
+        <v>1.1136546969352771E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.99117127939602445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -13606,8 +14149,23 @@
       <c r="E13" s="6">
         <v>0.74431922941371997</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>-2.2164999999999941</v>
+      </c>
+      <c r="I13">
+        <v>9.8282910052222849</v>
+      </c>
+      <c r="J13">
+        <v>-0.22552242285278812</v>
+      </c>
+      <c r="K13">
+        <v>0.82275053376355711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -13623,8 +14181,23 @@
       <c r="E14" s="6">
         <v>0.35164786709389201</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>7.7274166666666781</v>
+      </c>
+      <c r="I14">
+        <v>8.1902425043519056</v>
+      </c>
+      <c r="J14">
+        <v>0.94349058194072966</v>
+      </c>
+      <c r="K14">
+        <v>0.3512385018570115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -13640,256 +14213,478 @@
       <c r="E15" s="6">
         <v>7.70822265499745E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15">
+        <v>15.180083333333339</v>
+      </c>
+      <c r="I15">
+        <v>8.3524412701494803</v>
+      </c>
+      <c r="J15">
+        <v>1.8174426903886112</v>
+      </c>
+      <c r="K15">
+        <v>7.6838374975171403E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B21" s="6">
         <v>73.886333333333397</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C21" s="6">
         <v>4.6370848367779303</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D21" s="6">
         <v>15.933789424623299</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E21" s="6">
         <v>1.1433738135208399E-18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>73.886333333333354</v>
+      </c>
+      <c r="I21">
+        <v>4.6331008115116186</v>
+      </c>
+      <c r="J21">
+        <v>15.947490965392317</v>
+      </c>
+      <c r="K21">
+        <v>1.1105038520767292E-18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B22" s="6">
         <v>7.9648333333333303</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C22" s="6">
         <v>5.67924587205147</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D22" s="6">
         <v>1.4024455909770699</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E22" s="6">
         <v>0.168692554978048</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <v>7.9648333333333357</v>
+      </c>
+      <c r="I22">
+        <v>5.6743664575390644</v>
+      </c>
+      <c r="J22">
+        <v>1.4036515605634028</v>
+      </c>
+      <c r="K22">
+        <v>0.16833546794509435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B23" s="6">
         <v>9.1664999999999992</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="6">
         <v>5.67924587205147</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D23" s="6">
         <v>1.61403471631857</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E23" s="6">
         <v>0.11458306791363899</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23">
+        <v>9.1664999999999992</v>
+      </c>
+      <c r="I23">
+        <v>5.6743664575390635</v>
+      </c>
+      <c r="J23">
+        <v>1.6154226323929477</v>
+      </c>
+      <c r="K23">
+        <v>0.11428148205199448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B24" s="6">
         <v>1.8291666666666699</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C24" s="6">
         <v>5.4374639495153598</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D24" s="6">
         <v>0.33640069776089299</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E24" s="6">
         <v>0.738372129010606</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24">
+        <v>1.8291666666666722</v>
+      </c>
+      <c r="I24">
+        <v>5.4327922657912033</v>
+      </c>
+      <c r="J24">
+        <v>0.33668997030945413</v>
+      </c>
+      <c r="K24">
+        <v>0.73815572023050091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B25" s="6">
         <v>1.7246666666666599</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C25" s="6">
         <v>6.5578282660459797</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D25" s="6">
         <v>0.262993569928684</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E25" s="6">
         <v>0.79393998062023396</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25">
+        <v>1.8026666666666635</v>
+      </c>
+      <c r="I25">
+        <v>6.5521940034815236</v>
+      </c>
+      <c r="J25">
+        <v>0.2751241287588268</v>
+      </c>
+      <c r="K25">
+        <v>0.78467324599037991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B26" s="6">
         <v>-7.0003333333333302</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C26" s="6">
         <v>6.1342866432114702</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D26" s="6">
         <v>-1.1411813207457899</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E26" s="6">
         <v>0.26075352062797402</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26">
+        <v>-7.0003333333333275</v>
+      </c>
+      <c r="I26">
+        <v>6.1290162731756412</v>
+      </c>
+      <c r="J26">
+        <v>-1.142162627952402</v>
+      </c>
+      <c r="K26">
+        <v>0.26035041704784678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B27" s="6">
         <v>6.8969166666666704</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C27" s="6">
         <v>6.1342866432114702</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D27" s="6">
         <v>1.1243225280806199</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E27" s="6">
         <v>0.26774893215888101</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27">
+        <v>6.8969166666666677</v>
+      </c>
+      <c r="I27">
+        <v>6.129016273175643</v>
+      </c>
+      <c r="J27">
+        <v>1.1252893383318021</v>
+      </c>
+      <c r="K27">
+        <v>0.26734417446503389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B28" s="6">
         <v>-24.321833333333299</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C28" s="6">
         <v>7.3318748938241898</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D28" s="6">
         <v>-3.3172733694379</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E28" s="6">
         <v>1.9751870895198102E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28">
+        <v>-25.336333333333325</v>
+      </c>
+      <c r="I28">
+        <v>7.3255755967755904</v>
+      </c>
+      <c r="J28">
+        <v>-3.4586133196803419</v>
+      </c>
+      <c r="K28">
+        <v>1.327912730032603E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B29" s="6">
         <v>-0.91458333333333697</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C29" s="6">
         <v>8.9796761738959194</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D29" s="6">
         <v>-0.101850369169441</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E29" s="6">
         <v>0.91939731100514999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29">
+        <v>9.9916666666660617E-2</v>
+      </c>
+      <c r="I29">
+        <v>8.9719611421422822</v>
+      </c>
+      <c r="J29">
+        <v>1.1136546969351117E-2</v>
+      </c>
+      <c r="K29">
+        <v>0.99117127939602578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B30" s="6">
         <v>-3.2309999999999999</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C30" s="6">
         <v>9.8367423990689709</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D30" s="6">
         <v>-0.32846239831448798</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E30" s="6">
         <v>0.74431922941371897</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>-2.2165000000000123</v>
+      </c>
+      <c r="I30">
+        <v>9.8282910052222885</v>
+      </c>
+      <c r="J30">
+        <v>-0.22552242285278989</v>
+      </c>
+      <c r="K30">
+        <v>0.82275053376355578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B31" s="6">
         <v>8.6726666666666592</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C31" s="6">
         <v>9.1281106293125394</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D31" s="6">
         <v>0.95010534149494896</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E31" s="6">
         <v>0.34790974056242102</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>9.6871666666666627</v>
+      </c>
+      <c r="I31">
+        <v>9.1202680677332495</v>
+      </c>
+      <c r="J31">
+        <v>1.0621581070559816</v>
+      </c>
+      <c r="K31">
+        <v>0.29469711104431628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B32" s="6">
         <v>16.125333333333302</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C32" s="6">
         <v>9.2741696735558605</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D32" s="6">
         <v>1.73873607028268</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E32" s="6">
         <v>8.9970840555934295E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>17.139833333333318</v>
+      </c>
+      <c r="I32">
+        <v>9.2662016230232371</v>
+      </c>
+      <c r="J32">
+        <v>1.8497151293089595</v>
+      </c>
+      <c r="K32">
+        <v>7.1942950271870934E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B33" s="6">
         <v>0.94525000000000203</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C33" s="6">
         <v>9.5595952884927105</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D33" s="6">
         <v>9.8879708970299102E-2</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E33" s="6">
         <v>0.92174027757396004</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33">
+        <v>1.9597499999999954</v>
+      </c>
+      <c r="I33">
+        <v>9.5513820099986528</v>
+      </c>
+      <c r="J33">
+        <v>0.20517973189099489</v>
+      </c>
+      <c r="K33">
+        <v>0.83849888240737902</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13922,7 +14717,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
@@ -13931,7 +14726,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
@@ -13944,7 +14739,7 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
@@ -13954,7 +14749,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
@@ -13966,10 +14761,10 @@
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14032,7 +14827,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -14041,7 +14836,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
@@ -14068,9 +14863,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -14328,9 +15123,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
